--- a/DateBase/orders/Dang Nguyen_2024-11-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-16.xlsx
@@ -870,6 +870,9 @@
       <c r="C51" t="str">
         <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -931,7 +934,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0401104042525302525914206010101025253026301522149158811152030153029122587116222.510203041570</v>
+        <v>0401104042525302525914206010101025253026301522149158811152030153029122587116222.510203041575</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -874,9 +874,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>11</v>
+      </c>
+      <c r="C52" t="str">
+        <v>516_火焰兰_Crocosmia_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>12</v>
+      </c>
+      <c r="C60" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -934,7 +1017,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0401104042525302525914206010101025253026301522149158811152030153029122587116222.510203041575</v>
+        <v>0401104042525302525914206010101025253026301522149158811152030153029122587116222.5102030415754015302525203040680</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,12 +954,408 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
+        <v>13</v>
+      </c>
+      <c r="C61" t="str">
+        <v>384_奶油向日葵_sunflower cream_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>478_绿芯向日葵_sunflower mini_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F63" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>433_红豆_Hypericum red_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>14</v>
+      </c>
+      <c r="C65" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F68" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>15</v>
+      </c>
+      <c r="C69" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>566_金盏花_Marigolds_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F74" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F75" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F76" t="str">
         <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>16</v>
+      </c>
+      <c r="C77" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="C80" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F82" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F83" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>310_彩星 黄_Tinted Gypso yellow_undefined_0.5kg</v>
+      </c>
+      <c r="F84" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>17</v>
+      </c>
+      <c r="C85" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>18</v>
+      </c>
+      <c r="C86" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>573_乒乓菊粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>573_乒乓菊粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F88" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>19</v>
+      </c>
+      <c r="C90" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F90" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F91" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F92" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>20</v>
+      </c>
+      <c r="C93" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F94" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>680_锦鲤黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F95" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>21</v>
+      </c>
+      <c r="C96" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F96" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F97" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="str">
+        <v>520_金鱼草黄色_snapdragon yellow_undefined_1bunch</v>
+      </c>
+      <c r="F98" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F99" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>311_彩星 橙_Tinted Gypso orange_undefined_0.5kg</v>
+      </c>
+      <c r="F100" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F101" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F102" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>679_锦鲤白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F103" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>22</v>
+      </c>
+      <c r="C104" t="str">
+        <v>650_洋牡丹婚礼白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F104" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F105" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F106" t="str">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L106"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1017,7 +1413,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0401104042525302525914206010101025253026301522149158811152030153029122587116222.5102030415754015302525203040680</v>
+        <v>0401104042525302525914206010101025253026301522149158811152030153029122587116222.510203041575401530252520304068252514923.5510258.5103052105251702020203010105271151061915531222030152025102524107208</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-16.xlsx
@@ -1415,6 +1415,9 @@
       <c r="G2" t="str">
         <v>0401104042525302525914206010101025253026301522149158811152030153029122587116222.510203041575401530252520304068252514923.5510258.5103052105251702020203010105271151061915531222030152025102524107208</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
